--- a/Celonis_Manual_TestCases.xlsx
+++ b/Celonis_Manual_TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsirola\Documents\Assignment Celonis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsirola\Documents\Assignment Celonis\CelonisManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB080F6-AB51-4923-9CDA-1A1E18EE58B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6966FB-94CF-4D74-AD33-8A509E83CC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
   <si>
     <t>Scenario</t>
   </si>
@@ -902,6 +902,12 @@
   </si>
   <si>
     <t>Repeat Steps 1 to 5 for all the other types of grouping.</t>
+  </si>
+  <si>
+    <t>T0012</t>
+  </si>
+  <si>
+    <t>T0013</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F1189-C0CD-453E-825C-05ED995A2797}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3216,9 @@
       <c r="C11" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
@@ -3229,7 +3237,9 @@
       <c r="C12" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
